--- a/src/_static/xlsx/tab_stati_di_lavorazione.xlsx
+++ b/src/_static/xlsx/tab_stati_di_lavorazione.xlsx
@@ -31,48 +31,38 @@
     <t>DATAFINEVALIDITA</t>
   </si>
   <si>
-    <t>richieste complete</t>
-  </si>
-  <si>
-    <t>richieste complete con esito positivo</t>
-  </si>
-  <si>
-    <t>richieste complete con esito negativo</t>
-  </si>
-  <si>
-    <t>richieste di estrazione annullate</t>
-  </si>
-  <si>
-    <t>richieste di estrazione da elaborare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">richieste complete con esito positivo ma segnalazione di errori non bloccanti </t>
-  </si>
-  <si>
-    <t>notifiche  da prendere in carico</t>
-  </si>
-  <si>
-    <t>notifiche  fruite</t>
-  </si>
-  <si>
-    <r>
-      <t>tutte le notifiche</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                                </t>
-    </r>
+    <t>In elaborazione</t>
+  </si>
+  <si>
+    <t>Completata con esito positivo</t>
+  </si>
+  <si>
+    <t>Completata con esito negativo</t>
+  </si>
+  <si>
+    <t>Annullata</t>
+  </si>
+  <si>
+    <t>Richieste di estrazione da elaborare</t>
+  </si>
+  <si>
+    <t>Completata con esito positivo e warning</t>
+  </si>
+  <si>
+    <t>Notifiche da prendere in carico</t>
+  </si>
+  <si>
+    <t>Notifiche fruite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutte le notifiche </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -93,17 +83,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,13 +105,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -438,13 +414,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625"/>
-    <col min="2" max="2" width="21.6640625"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
     <col min="3" max="3" width="13.6640625"/>
     <col min="4" max="4" width="17.1640625"/>
     <col min="5" max="5" width="16"/>
@@ -467,75 +443,75 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>3</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>5</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>6</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>7</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>8</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>9</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>13</v>
       </c>
     </row>
